--- a/List Component & Board.xlsx
+++ b/List Component & Board.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\#_MyGithub\KiCad-PCB_Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AMyGithub\KiCad-PCB_Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF77613-21EE-4F0F-8034-119623BD3D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C13C1CF-B1A9-401A-98A4-D7221FE3348A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="KiCAD Symbol" sheetId="3" r:id="rId2"/>
-    <sheet name="KiCAD List" sheetId="4" r:id="rId3"/>
+    <sheet name="KiCAD Symbol" sheetId="3" r:id="rId1"/>
+    <sheet name="KiCAD List" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="329">
   <si>
     <t>NO</t>
   </si>
@@ -38,73 +37,13 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>3D Model</t>
-  </si>
-  <si>
-    <t>Datasheet</t>
-  </si>
-  <si>
-    <t>Shop</t>
-  </si>
-  <si>
     <t>Resistor</t>
   </si>
   <si>
-    <t>Package</t>
-  </si>
-  <si>
-    <t>DIP</t>
-  </si>
-  <si>
-    <t>SMD 0805</t>
-  </si>
-  <si>
-    <t>SMD 1206</t>
-  </si>
-  <si>
     <t>Project</t>
   </si>
   <si>
     <t>Author</t>
-  </si>
-  <si>
-    <t>SMD 0603</t>
-  </si>
-  <si>
-    <t>Capacitor</t>
-  </si>
-  <si>
-    <t>AXIAL</t>
-  </si>
-  <si>
-    <t>Resistor 1 W</t>
-  </si>
-  <si>
-    <t>Resistor 2 W</t>
-  </si>
-  <si>
-    <t>: TooPayZ</t>
-  </si>
-  <si>
-    <t>: KiCAD myLibrary</t>
-  </si>
-  <si>
-    <t>Resistor 1/8 W</t>
-  </si>
-  <si>
-    <t>Resistor 1/4 W</t>
-  </si>
-  <si>
-    <t>Resistor 1/2 W</t>
-  </si>
-  <si>
-    <t>Resistor 5 W</t>
-  </si>
-  <si>
-    <t>Resistor 10 W</t>
-  </si>
-  <si>
-    <t>Image</t>
   </si>
   <si>
     <t>Capacitor Non Polar</t>
@@ -1245,7 +1184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1291,9 +1230,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1345,72 +1281,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>423866</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1492010</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>390525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3260D037-3126-157A-55FC-8F1A8BC996A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000">
-          <a:off x="4527432" y="587497"/>
-          <a:ext cx="271462" cy="1068144"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1675,277 +1545,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I19"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1467556F-6C38-4B66-B235-F749A32BFD53}">
   <dimension ref="B2:H143"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M128" sqref="M128"/>
     </sheetView>
   </sheetViews>
@@ -1962,18 +1565,18 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C2" s="8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C3" s="8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1982,1925 +1585,1925 @@
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="5" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="6"/>
       <c r="D7" s="4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="6"/>
       <c r="D8" s="4" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="6"/>
       <c r="D9" s="4" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="6"/>
       <c r="D10" s="4" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="6"/>
       <c r="D11" s="4" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="6"/>
       <c r="D12" s="4" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="6"/>
       <c r="D13" s="4" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="6"/>
       <c r="D14" s="4" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="6"/>
       <c r="D15" s="4" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="15" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="15" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="D17" s="4" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="15" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="D18" s="4" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="5" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="D20" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="D21" s="4" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="D22" s="4" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="15" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="D23" s="4" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="D24" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="D25" s="4" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="15" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="D26" s="4" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="D27" s="4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="D28" s="4" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="D29" s="4" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="D30" s="4" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="D31" s="4" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="D32" s="4" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="D33" s="4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="D34" s="4" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="D35" s="4" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="D36" s="4" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="D37" s="4" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G37" s="10"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="D38" s="4" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="D39" s="4" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G39" s="10"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="5" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G40" s="10"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="D41" s="4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G41" s="10"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="D42" s="4" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G42" s="10"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="D43" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="D44" s="4" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="D45" s="4" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G45" s="10"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="D46" s="4" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G46" s="10"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="D47" s="4" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="D48" s="4" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="D49" s="4" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="D50" s="4" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G50" s="10"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="D51" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G51" s="10"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="D52" s="4" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G52" s="10"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="D53" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="D54" s="4" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G54" s="10"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="D55" s="4" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G55" s="10"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="D56" s="4" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G56" s="10"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="D57" s="4" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="D58" s="4" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G58" s="10"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="D59" s="4" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G59" s="10"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="D60" s="4" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G60" s="10"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="D61" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G61" s="10"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="D62" s="4" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G62" s="10"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="D63" s="4" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G63" s="10"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="5" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G64" s="10"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="D65" s="4" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G65" s="10"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="D66" s="4" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G66" s="10"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="D67" s="4" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G67" s="10"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="D68" s="4" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G68" s="10"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="D69" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G69" s="10"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="D70" s="4" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G70" s="10"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="D71" s="4" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G71" s="10"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="D72" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G72" s="10"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="D73" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G73" s="10"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="D74" s="4" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="D75" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="15" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="D76" s="4" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="15" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="D77" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="15" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="5" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G78" s="10"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="D79" s="4" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G79" s="10"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="D80" s="4" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G80" s="10"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="D81" s="4" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G81" s="10"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
       <c r="D82" s="4" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G82" s="10"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
       <c r="D83" s="4" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G83" s="10"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
       <c r="D84" s="4" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G84" s="10"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
       <c r="D85" s="4" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G85" s="10"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
       <c r="D86" s="4" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G86" s="10"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
       <c r="D87" s="4" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G87" s="10"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="3"/>
       <c r="D88" s="4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G88" s="10"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="3"/>
       <c r="D89" s="4" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G89" s="10"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="3"/>
       <c r="D90" s="4" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G90" s="10"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="3"/>
       <c r="D91" s="4" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G91" s="10"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="3"/>
       <c r="D92" s="4" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G92" s="10"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
       <c r="D93" s="4" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G93" s="10"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
       <c r="D94" s="4" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G94" s="10"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="3"/>
       <c r="D95" s="4" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G95" s="9"/>
       <c r="H95" s="15" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
       <c r="D96" s="4" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G96" s="9"/>
       <c r="H96" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="3"/>
       <c r="D97" s="4" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G97" s="10"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="3"/>
       <c r="D98" s="4" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G98" s="9"/>
       <c r="H98" s="15" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="3"/>
       <c r="D99" s="4" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="15" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="3"/>
       <c r="D100" s="4" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="15" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="3"/>
       <c r="D101" s="4" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="3"/>
       <c r="D102" s="4" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="15" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="3"/>
       <c r="D103" s="4" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G103" s="9"/>
       <c r="H103" s="15" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
       <c r="D104" s="4" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G104" s="9"/>
       <c r="H104" s="15" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
       <c r="D105" s="4" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G105" s="9"/>
       <c r="H105" s="15" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
       <c r="D106" s="4" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G106" s="9"/>
       <c r="H106" s="15" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>
       <c r="D107" s="4" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G107" s="9"/>
       <c r="H107" s="15" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="3"/>
       <c r="D108" s="4" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="15" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
       <c r="D109" s="4" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G109" s="10"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
       <c r="D110" s="4" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G110" s="10"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
       <c r="D111" s="4" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G111" s="10"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
       <c r="D112" s="4" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="3"/>
       <c r="D113" s="4" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G113" s="10"/>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
       <c r="D114" s="4" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G114" s="10"/>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="3"/>
       <c r="D115" s="4" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G115" s="9"/>
       <c r="H115" s="15" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="3"/>
       <c r="D116" s="4" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G116" s="9"/>
       <c r="H116" s="15" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
       <c r="D117" s="4" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G117" s="9"/>
       <c r="H117" s="15" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="3"/>
       <c r="D118" s="4" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G118" s="9"/>
       <c r="H118" s="15" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
       <c r="D119" s="4" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G119" s="10"/>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="3"/>
       <c r="C120" s="5" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G120" s="9"/>
       <c r="H120" s="15" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="3"/>
       <c r="D121" s="4" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G121" s="9"/>
       <c r="H121" s="15" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="3"/>
       <c r="D122" s="4" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G122" s="9"/>
       <c r="H122" s="15" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="3"/>
       <c r="D123" s="4" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G123" s="9"/>
       <c r="H123" s="15" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="3"/>
       <c r="C124" s="5" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G124" s="9"/>
       <c r="H124" s="15" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
       <c r="D125" s="4" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G125" s="9"/>
       <c r="H125" s="15" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
       <c r="D126" s="4" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G126" s="9"/>
       <c r="H126" s="15" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>
       <c r="D127" s="4" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G127" s="9"/>
       <c r="H127" s="15" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="3"/>
       <c r="D128" s="4" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="15" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" s="3"/>
       <c r="D129" s="4" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G129" s="9"/>
       <c r="H129" s="15" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="3"/>
       <c r="D130" s="4" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G130" s="9"/>
       <c r="H130" s="15" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" s="3"/>
       <c r="D131" s="4" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G131" s="9"/>
       <c r="H131" s="15" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="3"/>
       <c r="D132" s="4" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G132" s="9"/>
       <c r="H132" s="15" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="3"/>
       <c r="D133" s="4" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G133" s="9"/>
       <c r="H133" s="15" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="3"/>
       <c r="D134" s="4" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G134" s="10"/>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="3"/>
       <c r="D135" s="4" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G135" s="9"/>
       <c r="H135" s="15" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
       <c r="D136" s="4" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G136" s="9"/>
       <c r="H136" s="15" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>
       <c r="D137" s="4" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G137" s="9"/>
       <c r="H137" s="15" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" s="3"/>
       <c r="C138" s="12" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G138" s="9"/>
       <c r="H138" s="15" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.25">
@@ -3913,7 +3516,7 @@
     <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" s="3"/>
       <c r="C140" s="13" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="9"/>
@@ -3926,16 +3529,16 @@
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" s="3"/>
       <c r="C143" s="1" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G143" s="10"/>
       <c r="H143" s="14"/>
@@ -3946,12 +3549,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDF87F5-FF64-4105-95CB-994497298E2A}">
   <dimension ref="B2:G158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J156" sqref="J156"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3962,24 +3565,24 @@
     <col min="4" max="4" width="27" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" style="17" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C2" s="8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C3" s="8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3988,13 +3591,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>2</v>
@@ -4005,16 +3608,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>224</v>
+        <v>196</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>204</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>315</v>
+        <v>59</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -4022,14 +3625,14 @@
         <v>2</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="17" t="s">
-        <v>225</v>
+      <c r="D7" s="16" t="s">
+        <v>205</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>315</v>
+        <v>59</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -4037,14 +3640,14 @@
         <v>3</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="17" t="s">
-        <v>226</v>
+      <c r="D8" s="16" t="s">
+        <v>206</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>315</v>
+        <v>59</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -4052,14 +3655,14 @@
         <v>4</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="17" t="s">
-        <v>227</v>
+      <c r="D9" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>315</v>
+        <v>59</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -4068,13 +3671,13 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="4" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>315</v>
+        <v>59</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -4083,13 +3686,13 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="4" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>315</v>
+        <v>59</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -4098,13 +3701,13 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="4" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>315</v>
+        <v>59</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -4113,13 +3716,13 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="4" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>315</v>
+        <v>59</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -4128,16 +3731,16 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="4" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>233</v>
+        <v>59</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -4146,16 +3749,16 @@
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="4" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>233</v>
+        <v>59</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -4164,13 +3767,13 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="4" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>315</v>
+        <v>59</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -4179,16 +3782,16 @@
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="4" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>232</v>
+        <v>59</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -4197,16 +3800,16 @@
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="4" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>234</v>
+        <v>59</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -4214,16 +3817,16 @@
         <v>14</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>235</v>
+        <v>59</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -4231,16 +3834,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>236</v>
+        <v>59</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -4249,13 +3852,13 @@
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="4" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>315</v>
+        <v>59</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -4264,13 +3867,13 @@
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="4" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>315</v>
+        <v>59</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -4279,13 +3882,13 @@
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="4" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>315</v>
+        <v>59</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -4293,73 +3896,70 @@
         <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>239</v>
+        <v>59</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>20</v>
       </c>
-      <c r="C25" s="16"/>
       <c r="D25" s="4" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>240</v>
+        <v>59</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>21</v>
       </c>
-      <c r="C26" s="16"/>
       <c r="D26" s="4" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>241</v>
+        <v>59</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>22</v>
       </c>
-      <c r="C27" s="16"/>
       <c r="D27" s="4" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>246</v>
+        <v>59</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -4367,16 +3967,16 @@
         <v>23</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>247</v>
+        <v>59</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -4384,16 +3984,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>248</v>
+        <v>59</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -4401,16 +4001,16 @@
         <v>25</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>249</v>
+        <v>59</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -4418,16 +4018,16 @@
         <v>26</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>251</v>
+        <v>59</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
@@ -4435,133 +4035,126 @@
         <v>27</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>250</v>
+        <v>59</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>28</v>
       </c>
-      <c r="C33" s="16"/>
       <c r="D33" s="4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>29</v>
       </c>
-      <c r="C34" s="16"/>
       <c r="D34" s="4" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>30</v>
       </c>
-      <c r="C35" s="16"/>
       <c r="D35" s="4" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>31</v>
       </c>
-      <c r="C36" s="16"/>
       <c r="D36" s="4" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>250</v>
+        <v>59</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>32</v>
       </c>
-      <c r="C37" s="16"/>
       <c r="D37" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>252</v>
+        <v>59</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>33</v>
       </c>
-      <c r="C38" s="16"/>
       <c r="D38" s="4" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>253</v>
+        <v>59</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>34</v>
       </c>
-      <c r="C39" s="16"/>
       <c r="D39" s="4" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>255</v>
+        <v>59</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
@@ -4569,16 +4162,16 @@
         <v>35</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>254</v>
+        <v>59</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
@@ -4586,16 +4179,16 @@
         <v>36</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>256</v>
+        <v>59</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
@@ -4603,16 +4196,16 @@
         <v>37</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>257</v>
+        <v>59</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
@@ -4620,13 +4213,13 @@
         <v>38</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
@@ -4634,13 +4227,13 @@
         <v>39</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
@@ -4648,13 +4241,13 @@
         <v>40</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
@@ -4662,13 +4255,13 @@
         <v>41</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4677,298 +4270,298 @@
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G47" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="G47" s="17"/>
     </row>
     <row r="48" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>43</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>265</v>
+        <v>59</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <v>44</v>
       </c>
-      <c r="C49" s="16"/>
+      <c r="C49" s="1"/>
       <c r="D49" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>264</v>
+        <v>59</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <v>45</v>
       </c>
-      <c r="C50" s="16"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="4" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G50" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="G50" s="17"/>
     </row>
     <row r="51" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <v>46</v>
       </c>
-      <c r="C51" s="16"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="4" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>266</v>
+        <v>59</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <v>47</v>
       </c>
-      <c r="C52" s="16"/>
+      <c r="C52" s="1"/>
       <c r="D52" s="4" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>267</v>
+        <v>59</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <v>48</v>
       </c>
-      <c r="C53" s="16"/>
+      <c r="C53" s="1"/>
       <c r="D53" s="4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>268</v>
+        <v>59</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <v>49</v>
       </c>
-      <c r="C54" s="16"/>
+      <c r="C54" s="1"/>
       <c r="D54" s="4" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G54" s="18" t="s">
-        <v>267</v>
+        <v>59</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <v>50</v>
       </c>
-      <c r="C55" s="16"/>
+      <c r="C55" s="1"/>
       <c r="D55" s="4" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G55" s="18" t="s">
-        <v>267</v>
+        <v>59</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
         <v>51</v>
       </c>
-      <c r="C56" s="16"/>
+      <c r="C56" s="1"/>
       <c r="D56" s="4" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>267</v>
+        <v>59</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <v>52</v>
       </c>
-      <c r="C57" s="16"/>
+      <c r="C57" s="1"/>
       <c r="D57" s="4" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G57" s="18" t="s">
-        <v>267</v>
+        <v>59</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="58" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <v>53</v>
       </c>
-      <c r="C58" s="16"/>
+      <c r="C58" s="1"/>
       <c r="D58" s="4" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G58" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="G58" s="17"/>
     </row>
     <row r="59" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
         <v>54</v>
       </c>
-      <c r="C59" s="16"/>
+      <c r="C59" s="1"/>
       <c r="D59" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G59" s="18" t="s">
-        <v>269</v>
+        <v>59</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <v>55</v>
       </c>
-      <c r="C60" s="16"/>
+      <c r="C60" s="1"/>
       <c r="D60" s="4" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>269</v>
+        <v>59</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
         <v>56</v>
       </c>
-      <c r="C61" s="16"/>
+      <c r="C61" s="1"/>
       <c r="D61" s="4" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>270</v>
+        <v>59</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <v>57</v>
       </c>
-      <c r="C62" s="16"/>
+      <c r="C62" s="1"/>
       <c r="D62" s="4" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G62" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="G62" s="17"/>
     </row>
     <row r="63" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <v>58</v>
       </c>
-      <c r="C63" s="16"/>
+      <c r="C63" s="1"/>
       <c r="D63" s="4" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G63" s="18" t="s">
-        <v>269</v>
+        <v>59</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4977,15 +4570,15 @@
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="4" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G64" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="G64" s="17"/>
     </row>
     <row r="65" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
@@ -4993,15 +4586,15 @@
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="4" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G65" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="G65" s="17"/>
     </row>
     <row r="66" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
@@ -5009,15 +4602,15 @@
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="4" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G66" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="G66" s="17"/>
     </row>
     <row r="67" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
@@ -5025,15 +4618,15 @@
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="4" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G67" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="G67" s="17"/>
     </row>
     <row r="68" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
@@ -5041,15 +4634,15 @@
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G68" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="G68" s="17"/>
     </row>
     <row r="69" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
@@ -5057,15 +4650,15 @@
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="4" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G69" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="G69" s="17"/>
     </row>
     <row r="70" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3">
@@ -5073,15 +4666,15 @@
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="4" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G70" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="G70" s="17"/>
     </row>
     <row r="71" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
@@ -5089,15 +4682,15 @@
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="4" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G71" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="G71" s="17"/>
     </row>
     <row r="72" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3">
@@ -5105,15 +4698,15 @@
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="4" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G72" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="G72" s="17"/>
     </row>
     <row r="73" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
@@ -5121,15 +4714,15 @@
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G73" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="G73" s="17"/>
     </row>
     <row r="74" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3">
@@ -5137,15 +4730,15 @@
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="4" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G74" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="G74" s="17"/>
     </row>
     <row r="75" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3">
@@ -5153,70 +4746,68 @@
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="4" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G75" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="G75" s="17"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="3">
         <v>71</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>271</v>
+        <v>59</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
         <v>72</v>
       </c>
-      <c r="C77" s="16"/>
       <c r="D77" s="4" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G77" s="18" t="s">
-        <v>272</v>
+        <v>59</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="3">
         <v>73</v>
       </c>
-      <c r="C78" s="16"/>
       <c r="D78" s="4" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G78" s="18" t="s">
-        <v>275</v>
+        <v>59</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
@@ -5224,16 +4815,16 @@
         <v>74</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G79" s="18" t="s">
-        <v>276</v>
+        <v>59</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
@@ -5241,16 +4832,16 @@
         <v>75</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G80" s="18" t="s">
-        <v>277</v>
+        <v>59</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
@@ -5258,16 +4849,16 @@
         <v>76</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G81" s="18" t="s">
-        <v>278</v>
+        <v>59</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
@@ -5275,16 +4866,16 @@
         <v>77</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G82" s="18" t="s">
-        <v>279</v>
+        <v>59</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
@@ -5292,16 +4883,16 @@
         <v>78</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G83" s="18" t="s">
-        <v>280</v>
+        <v>59</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
@@ -5309,16 +4900,16 @@
         <v>79</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G84" s="18" t="s">
-        <v>281</v>
+        <v>59</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
@@ -5326,16 +4917,16 @@
         <v>80</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G85" s="18" t="s">
-        <v>282</v>
+        <v>59</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
@@ -5343,34 +4934,33 @@
         <v>81</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G86" s="18" t="s">
-        <v>283</v>
+        <v>59</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
         <v>82</v>
       </c>
-      <c r="C87" s="16"/>
       <c r="D87" s="4" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G87" s="18" t="s">
-        <v>283</v>
+        <v>59</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
@@ -5378,16 +4968,16 @@
         <v>83</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G88" s="18" t="s">
-        <v>285</v>
+        <v>59</v>
+      </c>
+      <c r="G88" s="17" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
@@ -5395,16 +4985,16 @@
         <v>84</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G89" s="18" t="s">
-        <v>286</v>
+        <v>59</v>
+      </c>
+      <c r="G89" s="17" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
@@ -5412,16 +5002,16 @@
         <v>85</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G90" s="18" t="s">
-        <v>287</v>
+        <v>59</v>
+      </c>
+      <c r="G90" s="17" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
@@ -5429,16 +5019,16 @@
         <v>86</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G91" s="18" t="s">
-        <v>284</v>
+        <v>59</v>
+      </c>
+      <c r="G91" s="17" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
@@ -5446,16 +5036,16 @@
         <v>87</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G92" s="18" t="s">
-        <v>288</v>
+        <v>59</v>
+      </c>
+      <c r="G92" s="17" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
@@ -5463,16 +5053,16 @@
         <v>88</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G93" s="18" t="s">
-        <v>289</v>
+        <v>59</v>
+      </c>
+      <c r="G93" s="17" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
@@ -5480,16 +5070,16 @@
         <v>89</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G94" s="18" t="s">
-        <v>290</v>
+        <v>59</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
@@ -5497,16 +5087,16 @@
         <v>90</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G95" s="18" t="s">
-        <v>291</v>
+        <v>59</v>
+      </c>
+      <c r="G95" s="17" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
@@ -5514,16 +5104,16 @@
         <v>91</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G96" s="18" t="s">
-        <v>292</v>
+        <v>59</v>
+      </c>
+      <c r="G96" s="17" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
@@ -5531,142 +5121,135 @@
         <v>92</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G97" s="18" t="s">
-        <v>293</v>
+        <v>59</v>
+      </c>
+      <c r="G97" s="17" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="3">
         <v>93</v>
       </c>
-      <c r="C98" s="16"/>
       <c r="D98" s="4" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G98" s="18" t="s">
-        <v>294</v>
+        <v>59</v>
+      </c>
+      <c r="G98" s="17" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="3">
         <v>94</v>
       </c>
-      <c r="C99" s="16"/>
       <c r="D99" s="4" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G99" s="18" t="s">
-        <v>299</v>
+        <v>59</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="3">
         <v>95</v>
       </c>
-      <c r="C100" s="16"/>
       <c r="D100" s="4" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G100" s="18" t="s">
-        <v>300</v>
+        <v>59</v>
+      </c>
+      <c r="G100" s="17" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="3">
         <v>96</v>
       </c>
-      <c r="C101" s="16"/>
       <c r="D101" s="4" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G101" s="18" t="s">
-        <v>298</v>
+        <v>59</v>
+      </c>
+      <c r="G101" s="17" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="3">
         <v>97</v>
       </c>
-      <c r="C102" s="16"/>
       <c r="D102" s="4" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G102" s="18" t="s">
-        <v>297</v>
+        <v>59</v>
+      </c>
+      <c r="G102" s="17" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="3">
         <v>98</v>
       </c>
-      <c r="C103" s="16"/>
       <c r="D103" s="4" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G103" s="18" t="s">
-        <v>296</v>
+        <v>59</v>
+      </c>
+      <c r="G103" s="17" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="3">
         <v>99</v>
       </c>
-      <c r="C104" s="16"/>
       <c r="D104" s="4" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G104" s="18" t="s">
-        <v>295</v>
+        <v>59</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
@@ -5674,16 +5257,16 @@
         <v>100</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G105" s="18" t="s">
-        <v>301</v>
+        <v>59</v>
+      </c>
+      <c r="G105" s="17" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
@@ -5691,16 +5274,16 @@
         <v>101</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G106" s="18" t="s">
-        <v>302</v>
+        <v>59</v>
+      </c>
+      <c r="G106" s="17" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
@@ -5708,16 +5291,16 @@
         <v>102</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G107" s="18" t="s">
-        <v>303</v>
+        <v>59</v>
+      </c>
+      <c r="G107" s="17" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
@@ -5725,16 +5308,16 @@
         <v>103</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G108" s="18" t="s">
-        <v>304</v>
+        <v>59</v>
+      </c>
+      <c r="G108" s="17" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
@@ -5742,16 +5325,16 @@
         <v>104</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G109" s="18" t="s">
-        <v>305</v>
+        <v>59</v>
+      </c>
+      <c r="G109" s="17" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
@@ -5759,16 +5342,16 @@
         <v>105</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G110" s="18" t="s">
-        <v>306</v>
+        <v>59</v>
+      </c>
+      <c r="G110" s="17" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
@@ -5776,16 +5359,16 @@
         <v>106</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G111" s="18" t="s">
-        <v>307</v>
+        <v>59</v>
+      </c>
+      <c r="G111" s="17" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
@@ -5793,16 +5376,16 @@
         <v>107</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G112" s="18" t="s">
-        <v>308</v>
+        <v>59</v>
+      </c>
+      <c r="G112" s="17" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
@@ -5810,16 +5393,16 @@
         <v>108</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G113" s="18" t="s">
-        <v>309</v>
+        <v>59</v>
+      </c>
+      <c r="G113" s="17" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
@@ -5827,16 +5410,16 @@
         <v>109</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G114" s="18" t="s">
-        <v>310</v>
+        <v>59</v>
+      </c>
+      <c r="G114" s="17" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
@@ -5844,13 +5427,13 @@
         <v>110</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
@@ -5858,73 +5441,70 @@
         <v>111</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G116" s="18" t="s">
-        <v>311</v>
+        <v>59</v>
+      </c>
+      <c r="G116" s="17" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="3">
         <v>112</v>
       </c>
-      <c r="C117" s="16"/>
       <c r="D117" s="4" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G117" s="18" t="s">
-        <v>312</v>
+        <v>59</v>
+      </c>
+      <c r="G117" s="17" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="3">
         <v>113</v>
       </c>
-      <c r="C118" s="16"/>
       <c r="D118" s="4" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G118" s="18" t="s">
-        <v>313</v>
+        <v>59</v>
+      </c>
+      <c r="G118" s="17" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="3">
         <v>114</v>
       </c>
-      <c r="C119" s="16"/>
       <c r="D119" s="4" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G119" s="18" t="s">
-        <v>314</v>
+        <v>59</v>
+      </c>
+      <c r="G119" s="17" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="120" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5932,91 +5512,91 @@
         <v>115</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G120" s="18" t="s">
-        <v>326</v>
+        <v>59</v>
+      </c>
+      <c r="G120" s="17" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="121" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="3">
         <v>116</v>
       </c>
-      <c r="C121" s="16"/>
+      <c r="C121" s="1"/>
       <c r="D121" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G121" s="18" t="s">
-        <v>323</v>
+        <v>59</v>
+      </c>
+      <c r="G121" s="17" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="122" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="3">
         <v>117</v>
       </c>
-      <c r="C122" s="16"/>
+      <c r="C122" s="1"/>
       <c r="D122" s="4" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G122" s="18" t="s">
-        <v>324</v>
+        <v>59</v>
+      </c>
+      <c r="G122" s="17" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="123" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="3">
         <v>118</v>
       </c>
-      <c r="C123" s="16"/>
+      <c r="C123" s="1"/>
       <c r="D123" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G123" s="18" t="s">
-        <v>325</v>
+        <v>59</v>
+      </c>
+      <c r="G123" s="17" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="124" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="3">
         <v>119</v>
       </c>
-      <c r="C124" s="16"/>
+      <c r="C124" s="1"/>
       <c r="D124" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G124" s="18" t="s">
-        <v>331</v>
+        <v>59</v>
+      </c>
+      <c r="G124" s="17" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
@@ -6024,16 +5604,16 @@
         <v>120</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G125" s="18" t="s">
-        <v>327</v>
+        <v>59</v>
+      </c>
+      <c r="G125" s="17" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
@@ -6041,16 +5621,16 @@
         <v>121</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G126" s="18" t="s">
-        <v>328</v>
+        <v>59</v>
+      </c>
+      <c r="G126" s="17" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
@@ -6058,78 +5638,78 @@
         <v>122</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G127" s="18" t="s">
-        <v>328</v>
+        <v>59</v>
+      </c>
+      <c r="G127" s="17" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="128" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="3">
         <v>123</v>
       </c>
-      <c r="C128" s="16"/>
+      <c r="C128" s="1"/>
       <c r="D128" s="4" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G128" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="G128" s="17"/>
     </row>
     <row r="129" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="3">
         <v>124</v>
       </c>
-      <c r="C129" s="16"/>
+      <c r="C129" s="1"/>
       <c r="D129" s="4" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G129" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="G129" s="17"/>
     </row>
     <row r="130" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="3">
         <v>125</v>
       </c>
-      <c r="C130" s="16"/>
+      <c r="C130" s="1"/>
       <c r="D130" s="4" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G130" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="G130" s="17"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="3">
         <v>126</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.25">
@@ -6137,13 +5717,13 @@
         <v>127</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
@@ -6151,13 +5731,13 @@
         <v>128</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
@@ -6165,235 +5745,223 @@
         <v>129</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="3">
         <v>130</v>
       </c>
-      <c r="C135" s="16"/>
       <c r="D135" s="4" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="3">
         <v>131</v>
       </c>
-      <c r="C136" s="16"/>
       <c r="D136" s="4" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" s="3">
         <v>132</v>
       </c>
-      <c r="C137" s="16"/>
       <c r="D137" s="4" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" s="3">
         <v>133</v>
       </c>
-      <c r="C138" s="16"/>
       <c r="D138" s="4" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="3">
         <v>134</v>
       </c>
-      <c r="C139" s="16"/>
       <c r="D139" s="4" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" s="3">
         <v>135</v>
       </c>
-      <c r="C140" s="16"/>
       <c r="D140" s="4" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="3">
         <v>136</v>
       </c>
-      <c r="C141" s="16"/>
       <c r="D141" s="4" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="3">
         <v>137</v>
       </c>
-      <c r="C142" s="16"/>
       <c r="D142" s="4" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
         <v>138</v>
       </c>
-      <c r="C143" s="16"/>
       <c r="D143" s="4" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G143" s="18" t="s">
-        <v>185</v>
+        <v>59</v>
+      </c>
+      <c r="G143" s="17" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
         <v>139</v>
       </c>
-      <c r="C144" s="16"/>
       <c r="D144" s="4" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G144" s="18" t="s">
-        <v>186</v>
+        <v>59</v>
+      </c>
+      <c r="G144" s="17" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" s="3">
         <v>140</v>
       </c>
-      <c r="C145" s="16"/>
       <c r="D145" s="4" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G145" s="18" t="s">
-        <v>187</v>
+        <v>59</v>
+      </c>
+      <c r="G145" s="17" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="3">
         <v>141</v>
       </c>
-      <c r="C146" s="16"/>
       <c r="D146" s="4" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G146" s="18" t="s">
-        <v>188</v>
+        <v>59</v>
+      </c>
+      <c r="G146" s="17" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.25">
@@ -6401,16 +5969,16 @@
         <v>142</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G147" s="18" t="s">
-        <v>188</v>
+        <v>59</v>
+      </c>
+      <c r="G147" s="17" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.25">
@@ -6418,16 +5986,16 @@
         <v>143</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G148" s="18" t="s">
-        <v>343</v>
+        <v>59</v>
+      </c>
+      <c r="G148" s="17" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.25">
@@ -6435,16 +6003,16 @@
         <v>144</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G149" s="18" t="s">
-        <v>344</v>
+        <v>59</v>
+      </c>
+      <c r="G149" s="17" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.25">
@@ -6452,16 +6020,16 @@
         <v>145</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G150" s="18" t="s">
-        <v>348</v>
+        <v>59</v>
+      </c>
+      <c r="G150" s="17" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.25">
@@ -6469,16 +6037,16 @@
         <v>146</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G151" s="18" t="s">
-        <v>345</v>
+        <v>59</v>
+      </c>
+      <c r="G151" s="17" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.25">
@@ -6486,16 +6054,16 @@
         <v>147</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G152" s="18" t="s">
-        <v>345</v>
+        <v>59</v>
+      </c>
+      <c r="G152" s="17" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.25">
@@ -6503,16 +6071,16 @@
         <v>148</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G153" s="18" t="s">
-        <v>343</v>
+        <v>59</v>
+      </c>
+      <c r="G153" s="17" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
@@ -6520,16 +6088,16 @@
         <v>149</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F154" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G154" s="18" t="s">
-        <v>346</v>
+        <v>59</v>
+      </c>
+      <c r="G154" s="17" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.25">
@@ -6537,16 +6105,16 @@
         <v>150</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G155" s="18" t="s">
-        <v>347</v>
+        <v>59</v>
+      </c>
+      <c r="G155" s="17" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
@@ -6554,19 +6122,19 @@
         <v>151</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G156" s="18" t="s">
-        <v>332</v>
+        <v>59</v>
+      </c>
+      <c r="G156" s="17" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
@@ -6574,26 +6142,26 @@
         <v>152</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D157" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="E157" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F157" s="22" t="s">
-        <v>128</v>
+        <v>203</v>
+      </c>
+      <c r="D157" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="E157" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F157" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="G157" s="2"/>
     </row>
     <row r="158" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="23"/>
-      <c r="C158" s="24"/>
-      <c r="D158" s="26"/>
-      <c r="E158" s="24"/>
-      <c r="F158" s="24"/>
-      <c r="G158" s="25"/>
+      <c r="B158" s="22"/>
+      <c r="C158" s="23"/>
+      <c r="D158" s="25"/>
+      <c r="E158" s="23"/>
+      <c r="F158" s="23"/>
+      <c r="G158" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
